--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value955.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.362670834599561</v>
+        <v>1.025160551071167</v>
       </c>
       <c r="B1">
-        <v>2.146527823262343</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.633353230448747</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.8738261023599004</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
